--- a/inputfiles/params_BC.xlsx
+++ b/inputfiles/params_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\SubsurfaceSinks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457BDADC-2128-4ECA-8C8A-CEDA020D11F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F078403-2A4B-4CDB-ADC8-B87B12ADB5E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -981,17 +973,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1593,7 +1585,7 @@
         <v>90</v>
       </c>
       <c r="B45" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>91</v>

--- a/inputfiles/params_BC.xlsx
+++ b/inputfiles/params_BC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F078403-2A4B-4CDB-ADC8-B87B12ADB5E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30730D9F-B6A1-43F9-87AC-A59102258D3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="178">
   <si>
     <t>val</t>
   </si>
@@ -339,9 +339,6 @@
     <t>5.74,12.74,33.18,76.31,140.09,166.45,175.47,176.74,177.25,177.34,177.34</t>
   </si>
   <si>
-    <t>BC_pArea_curve</t>
-  </si>
-  <si>
     <t>Kf</t>
   </si>
   <si>
@@ -547,6 +544,21 @@
   </si>
   <si>
     <t>testing, 0 in published modcel</t>
+  </si>
+  <si>
+    <t>BC_Area_curve</t>
+  </si>
+  <si>
+    <t>n_vg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van genuchten parameter (unitless). Initial value of 1.578 from Roy-Poirier et al (2015), calibrated to: </t>
+  </si>
+  <si>
+    <t>covered</t>
+  </si>
+  <si>
+    <t>Covered means no ponding zone, no air-soil interaction. True = covered, false = not covered.</t>
   </si>
 </sst>
 </file>
@@ -973,8 +985,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1056,7 +1068,7 @@
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1067,10 +1079,10 @@
         <v>0.63343000000000005</v>
       </c>
       <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
         <v>141</v>
-      </c>
-      <c r="D7" t="s">
-        <v>142</v>
       </c>
       <c r="F7" s="1">
         <v>8.0580902099999996</v>
@@ -1087,7 +1099,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -1142,7 +1154,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1235,7 +1247,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1282,7 +1294,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23">
         <v>5.67E-2</v>
@@ -1335,7 +1347,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="1">
         <v>1E-3</v>
@@ -1344,12 +1356,12 @@
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B28" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1550,7 +1562,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1563,7 +1575,7 @@
         <v>3.52</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -1693,68 +1705,68 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
         <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="3">
         <v>0.38597441999999998</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="1">
         <v>360</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="11">
         <v>8.8584400000000004E-3</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B55" s="3">
         <v>0.23394123999999999</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="8"/>
@@ -1763,185 +1775,185 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B57">
         <v>0.15</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>1.3</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>0.5</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60">
         <v>0.8</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61">
         <v>0.21</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B62">
         <v>0.05</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63">
         <v>0.21</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64" s="1">
         <f>B65/10</f>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" s="1">
         <v>1E-3</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67">
         <v>0.1</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B68">
         <v>0.25</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" s="3">
         <v>15.058877799999999</v>
       </c>
       <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" t="s">
         <v>152</v>
       </c>
-      <c r="D69" t="s">
-        <v>153</v>
-      </c>
       <c r="E69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H69">
         <v>18.254071249999999</v>
@@ -1949,24 +1961,24 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71">
         <v>0.6</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="6"/>
@@ -1975,13 +1987,13 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B72">
         <v>0.8</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="8"/>
@@ -1990,13 +2002,13 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="9"/>
@@ -2005,19 +2017,19 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="4"/>
@@ -2025,12 +2037,30 @@
       <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="11">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
       <c r="I75" s="5"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>177</v>
+      </c>
       <c r="I76" s="5"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
